--- a/outputs/paper/UCI_METRO_TRAFFIC_Results.xlsx
+++ b/outputs/paper/UCI_METRO_TRAFFIC_Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>dataset_name</t>
   </si>
@@ -82,6 +82,66 @@
     <t>total_perf_duration_minutes_seed_214</t>
   </si>
   <si>
+    <t>change_point_perc_seed_565</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_565</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_565</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_565</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_600</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_600</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_600</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_600</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_713</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_713</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_713</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_713</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_999</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_999</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_999</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_999</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_1001</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_1001</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_1001</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_1001</t>
+  </si>
+  <si>
     <t>change_point_perc_mean</t>
   </si>
   <si>
@@ -178,7 +238,7 @@
     <t>Fixed Cut 90%</t>
   </si>
   <si>
-    <t>Full</t>
+    <t>No CPD</t>
   </si>
   <si>
     <t>Window AR</t>
@@ -557,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AY32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:51">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,16 +714,76 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:51">
       <c r="A2" s="1">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>17.84</v>
@@ -729,36 +849,96 @@
         <v>17.84</v>
       </c>
       <c r="Y2">
+        <v>13.88</v>
+      </c>
+      <c r="Z2">
+        <v>2323.06</v>
+      </c>
+      <c r="AA2">
+        <v>38.72</v>
+      </c>
+      <c r="AB2">
+        <v>17.84</v>
+      </c>
+      <c r="AC2">
+        <v>14.04</v>
+      </c>
+      <c r="AD2">
+        <v>3227.04</v>
+      </c>
+      <c r="AE2">
+        <v>53.78</v>
+      </c>
+      <c r="AF2">
+        <v>17.84</v>
+      </c>
+      <c r="AG2">
+        <v>13.24</v>
+      </c>
+      <c r="AH2">
+        <v>3583.44</v>
+      </c>
+      <c r="AI2">
+        <v>59.72</v>
+      </c>
+      <c r="AJ2">
+        <v>17.84</v>
+      </c>
+      <c r="AK2">
+        <v>13.44</v>
+      </c>
+      <c r="AL2">
+        <v>3696.07</v>
+      </c>
+      <c r="AM2">
+        <v>61.6</v>
+      </c>
+      <c r="AN2">
+        <v>17.84</v>
+      </c>
+      <c r="AO2">
+        <v>14.28</v>
+      </c>
+      <c r="AP2">
+        <v>3740.59</v>
+      </c>
+      <c r="AQ2">
+        <v>62.34</v>
+      </c>
+      <c r="AR2">
+        <v>17.84</v>
+      </c>
+      <c r="AS2">
         <v>0</v>
       </c>
-      <c r="Z2">
-        <v>13.82</v>
-      </c>
-      <c r="AA2">
-        <v>0.33</v>
-      </c>
-      <c r="AB2">
-        <v>3816.97</v>
-      </c>
-      <c r="AC2">
-        <v>708.59</v>
-      </c>
-      <c r="AD2">
-        <v>63.62</v>
-      </c>
-      <c r="AE2">
-        <v>11.81</v>
+      <c r="AT2">
+        <v>13.8</v>
+      </c>
+      <c r="AU2">
+        <v>0.36</v>
+      </c>
+      <c r="AV2">
+        <v>3565.51</v>
+      </c>
+      <c r="AW2">
+        <v>669.23</v>
+      </c>
+      <c r="AX2">
+        <v>59.43</v>
+      </c>
+      <c r="AY2">
+        <v>11.15</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:51">
       <c r="A3" s="1">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>14.2</v>
@@ -824,36 +1004,96 @@
         <v>14.2</v>
       </c>
       <c r="Y3">
+        <v>13.35</v>
+      </c>
+      <c r="Z3">
+        <v>2461.23</v>
+      </c>
+      <c r="AA3">
+        <v>41.02</v>
+      </c>
+      <c r="AB3">
+        <v>14.2</v>
+      </c>
+      <c r="AC3">
+        <v>13.95</v>
+      </c>
+      <c r="AD3">
+        <v>3451.48</v>
+      </c>
+      <c r="AE3">
+        <v>57.52</v>
+      </c>
+      <c r="AF3">
+        <v>14.2</v>
+      </c>
+      <c r="AG3">
+        <v>14.04</v>
+      </c>
+      <c r="AH3">
+        <v>3679.49</v>
+      </c>
+      <c r="AI3">
+        <v>61.32</v>
+      </c>
+      <c r="AJ3">
+        <v>14.2</v>
+      </c>
+      <c r="AK3">
+        <v>13.38</v>
+      </c>
+      <c r="AL3">
+        <v>3513.51</v>
+      </c>
+      <c r="AM3">
+        <v>58.56</v>
+      </c>
+      <c r="AN3">
+        <v>14.2</v>
+      </c>
+      <c r="AO3">
+        <v>13.86</v>
+      </c>
+      <c r="AP3">
+        <v>3425.63</v>
+      </c>
+      <c r="AQ3">
+        <v>57.09</v>
+      </c>
+      <c r="AR3">
+        <v>14.2</v>
+      </c>
+      <c r="AS3">
         <v>0</v>
       </c>
-      <c r="Z3">
-        <v>13.75</v>
-      </c>
-      <c r="AA3">
-        <v>0.46</v>
-      </c>
-      <c r="AB3">
-        <v>4209.2</v>
-      </c>
-      <c r="AC3">
-        <v>844.91</v>
-      </c>
-      <c r="AD3">
-        <v>70.15000000000001</v>
-      </c>
-      <c r="AE3">
-        <v>14.08</v>
+      <c r="AT3">
+        <v>13.73</v>
+      </c>
+      <c r="AU3">
+        <v>0.38</v>
+      </c>
+      <c r="AV3">
+        <v>3757.74</v>
+      </c>
+      <c r="AW3">
+        <v>804.53</v>
+      </c>
+      <c r="AX3">
+        <v>62.63</v>
+      </c>
+      <c r="AY3">
+        <v>13.41</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:51">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>14.2</v>
@@ -919,36 +1159,96 @@
         <v>14.2</v>
       </c>
       <c r="Y4">
+        <v>13.35</v>
+      </c>
+      <c r="Z4">
+        <v>2393.29</v>
+      </c>
+      <c r="AA4">
+        <v>39.89</v>
+      </c>
+      <c r="AB4">
+        <v>14.2</v>
+      </c>
+      <c r="AC4">
+        <v>13.95</v>
+      </c>
+      <c r="AD4">
+        <v>3389.43</v>
+      </c>
+      <c r="AE4">
+        <v>56.49</v>
+      </c>
+      <c r="AF4">
+        <v>14.2</v>
+      </c>
+      <c r="AG4">
+        <v>14.04</v>
+      </c>
+      <c r="AH4">
+        <v>3495.49</v>
+      </c>
+      <c r="AI4">
+        <v>58.26</v>
+      </c>
+      <c r="AJ4">
+        <v>14.2</v>
+      </c>
+      <c r="AK4">
+        <v>13.38</v>
+      </c>
+      <c r="AL4">
+        <v>3411.57</v>
+      </c>
+      <c r="AM4">
+        <v>56.86</v>
+      </c>
+      <c r="AN4">
+        <v>14.2</v>
+      </c>
+      <c r="AO4">
+        <v>13.86</v>
+      </c>
+      <c r="AP4">
+        <v>3287.25</v>
+      </c>
+      <c r="AQ4">
+        <v>54.79</v>
+      </c>
+      <c r="AR4">
+        <v>14.2</v>
+      </c>
+      <c r="AS4">
         <v>0</v>
       </c>
-      <c r="Z4">
-        <v>13.75</v>
-      </c>
-      <c r="AA4">
-        <v>0.46</v>
-      </c>
-      <c r="AB4">
-        <v>4309.9</v>
-      </c>
-      <c r="AC4">
-        <v>992.1900000000001</v>
-      </c>
-      <c r="AD4">
-        <v>71.83</v>
-      </c>
-      <c r="AE4">
-        <v>16.54</v>
+      <c r="AT4">
+        <v>13.73</v>
+      </c>
+      <c r="AU4">
+        <v>0.38</v>
+      </c>
+      <c r="AV4">
+        <v>3752.65</v>
+      </c>
+      <c r="AW4">
+        <v>935.0700000000001</v>
+      </c>
+      <c r="AX4">
+        <v>62.54</v>
+      </c>
+      <c r="AY4">
+        <v>15.58</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:51">
       <c r="A5" s="1">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>70.3</v>
@@ -1014,36 +1314,96 @@
         <v>70.3</v>
       </c>
       <c r="Y5">
+        <v>15.06</v>
+      </c>
+      <c r="Z5">
+        <v>1254.92</v>
+      </c>
+      <c r="AA5">
+        <v>20.92</v>
+      </c>
+      <c r="AB5">
+        <v>70.3</v>
+      </c>
+      <c r="AC5">
+        <v>12.27</v>
+      </c>
+      <c r="AD5">
+        <v>1401.21</v>
+      </c>
+      <c r="AE5">
+        <v>23.35</v>
+      </c>
+      <c r="AF5">
+        <v>70.3</v>
+      </c>
+      <c r="AG5">
+        <v>12.91</v>
+      </c>
+      <c r="AH5">
+        <v>1580.8</v>
+      </c>
+      <c r="AI5">
+        <v>26.35</v>
+      </c>
+      <c r="AJ5">
+        <v>70.3</v>
+      </c>
+      <c r="AK5">
+        <v>12.4</v>
+      </c>
+      <c r="AL5">
+        <v>1660.99</v>
+      </c>
+      <c r="AM5">
+        <v>27.68</v>
+      </c>
+      <c r="AN5">
+        <v>70.3</v>
+      </c>
+      <c r="AO5">
+        <v>13.97</v>
+      </c>
+      <c r="AP5">
+        <v>1754.96</v>
+      </c>
+      <c r="AQ5">
+        <v>29.25</v>
+      </c>
+      <c r="AR5">
+        <v>70.3</v>
+      </c>
+      <c r="AS5">
         <v>0</v>
       </c>
-      <c r="Z5">
-        <v>13.14</v>
-      </c>
-      <c r="AA5">
-        <v>0.29</v>
-      </c>
-      <c r="AB5">
-        <v>1768.52</v>
-      </c>
-      <c r="AC5">
-        <v>416.04</v>
-      </c>
-      <c r="AD5">
-        <v>29.48</v>
-      </c>
-      <c r="AE5">
-        <v>6.93</v>
+      <c r="AT5">
+        <v>13.23</v>
+      </c>
+      <c r="AU5">
+        <v>0.82</v>
+      </c>
+      <c r="AV5">
+        <v>1649.55</v>
+      </c>
+      <c r="AW5">
+        <v>332.75</v>
+      </c>
+      <c r="AX5">
+        <v>27.49</v>
+      </c>
+      <c r="AY5">
+        <v>5.55</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:51">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>70.3</v>
@@ -1109,36 +1469,96 @@
         <v>70.3</v>
       </c>
       <c r="Y6">
+        <v>15.06</v>
+      </c>
+      <c r="Z6">
+        <v>1267.98</v>
+      </c>
+      <c r="AA6">
+        <v>21.13</v>
+      </c>
+      <c r="AB6">
+        <v>70.3</v>
+      </c>
+      <c r="AC6">
+        <v>12.27</v>
+      </c>
+      <c r="AD6">
+        <v>1445.01</v>
+      </c>
+      <c r="AE6">
+        <v>24.08</v>
+      </c>
+      <c r="AF6">
+        <v>70.3</v>
+      </c>
+      <c r="AG6">
+        <v>12.91</v>
+      </c>
+      <c r="AH6">
+        <v>1534.97</v>
+      </c>
+      <c r="AI6">
+        <v>25.58</v>
+      </c>
+      <c r="AJ6">
+        <v>70.3</v>
+      </c>
+      <c r="AK6">
+        <v>12.4</v>
+      </c>
+      <c r="AL6">
+        <v>1663.07</v>
+      </c>
+      <c r="AM6">
+        <v>27.72</v>
+      </c>
+      <c r="AN6">
+        <v>70.3</v>
+      </c>
+      <c r="AO6">
+        <v>13.97</v>
+      </c>
+      <c r="AP6">
+        <v>1648.54</v>
+      </c>
+      <c r="AQ6">
+        <v>27.48</v>
+      </c>
+      <c r="AR6">
+        <v>70.3</v>
+      </c>
+      <c r="AS6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>13.14</v>
-      </c>
-      <c r="AA6">
-        <v>0.29</v>
-      </c>
-      <c r="AB6">
-        <v>1861.63</v>
-      </c>
-      <c r="AC6">
-        <v>502.03</v>
-      </c>
-      <c r="AD6">
-        <v>31.03</v>
-      </c>
-      <c r="AE6">
-        <v>8.369999999999999</v>
+      <c r="AT6">
+        <v>13.23</v>
+      </c>
+      <c r="AU6">
+        <v>0.82</v>
+      </c>
+      <c r="AV6">
+        <v>1686.77</v>
+      </c>
+      <c r="AW6">
+        <v>397.2</v>
+      </c>
+      <c r="AX6">
+        <v>28.11</v>
+      </c>
+      <c r="AY6">
+        <v>6.62</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:51">
       <c r="A7" s="1">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>14.2</v>
@@ -1204,36 +1624,96 @@
         <v>14.2</v>
       </c>
       <c r="Y7">
+        <v>13.35</v>
+      </c>
+      <c r="Z7">
+        <v>7482.85</v>
+      </c>
+      <c r="AA7">
+        <v>124.71</v>
+      </c>
+      <c r="AB7">
+        <v>14.2</v>
+      </c>
+      <c r="AC7">
+        <v>13.95</v>
+      </c>
+      <c r="AD7">
+        <v>8335.969999999999</v>
+      </c>
+      <c r="AE7">
+        <v>138.93</v>
+      </c>
+      <c r="AF7">
+        <v>14.2</v>
+      </c>
+      <c r="AG7">
+        <v>14.04</v>
+      </c>
+      <c r="AH7">
+        <v>8106.18</v>
+      </c>
+      <c r="AI7">
+        <v>135.1</v>
+      </c>
+      <c r="AJ7">
+        <v>14.2</v>
+      </c>
+      <c r="AK7">
+        <v>13.38</v>
+      </c>
+      <c r="AL7">
+        <v>8795.309999999999</v>
+      </c>
+      <c r="AM7">
+        <v>146.59</v>
+      </c>
+      <c r="AN7">
+        <v>14.2</v>
+      </c>
+      <c r="AO7">
+        <v>13.86</v>
+      </c>
+      <c r="AP7">
+        <v>9684.639999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>161.41</v>
+      </c>
+      <c r="AR7">
+        <v>14.2</v>
+      </c>
+      <c r="AS7">
         <v>0</v>
       </c>
-      <c r="Z7">
-        <v>13.75</v>
-      </c>
-      <c r="AA7">
-        <v>0.46</v>
-      </c>
-      <c r="AB7">
-        <v>8961.5</v>
-      </c>
-      <c r="AC7">
-        <v>1158.23</v>
-      </c>
-      <c r="AD7">
-        <v>149.36</v>
-      </c>
-      <c r="AE7">
-        <v>19.3</v>
+      <c r="AT7">
+        <v>13.73</v>
+      </c>
+      <c r="AU7">
+        <v>0.38</v>
+      </c>
+      <c r="AV7">
+        <v>8721.24</v>
+      </c>
+      <c r="AW7">
+        <v>980.28</v>
+      </c>
+      <c r="AX7">
+        <v>145.35</v>
+      </c>
+      <c r="AY7">
+        <v>16.34</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:51">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>14.33</v>
@@ -1299,36 +1779,96 @@
         <v>14.33</v>
       </c>
       <c r="Y8">
+        <v>13.34</v>
+      </c>
+      <c r="Z8">
+        <v>2636.52</v>
+      </c>
+      <c r="AA8">
+        <v>43.94</v>
+      </c>
+      <c r="AB8">
+        <v>14.33</v>
+      </c>
+      <c r="AC8">
+        <v>12.71</v>
+      </c>
+      <c r="AD8">
+        <v>3371.14</v>
+      </c>
+      <c r="AE8">
+        <v>56.19</v>
+      </c>
+      <c r="AF8">
+        <v>14.33</v>
+      </c>
+      <c r="AG8">
+        <v>13.63</v>
+      </c>
+      <c r="AH8">
+        <v>3610.02</v>
+      </c>
+      <c r="AI8">
+        <v>60.17</v>
+      </c>
+      <c r="AJ8">
+        <v>14.33</v>
+      </c>
+      <c r="AK8">
+        <v>13.43</v>
+      </c>
+      <c r="AL8">
+        <v>3510.33</v>
+      </c>
+      <c r="AM8">
+        <v>58.51</v>
+      </c>
+      <c r="AN8">
+        <v>14.33</v>
+      </c>
+      <c r="AO8">
+        <v>14.03</v>
+      </c>
+      <c r="AP8">
+        <v>3660.39</v>
+      </c>
+      <c r="AQ8">
+        <v>61.01</v>
+      </c>
+      <c r="AR8">
+        <v>14.33</v>
+      </c>
+      <c r="AS8">
         <v>0</v>
       </c>
-      <c r="Z8">
-        <v>13.89</v>
-      </c>
-      <c r="AA8">
-        <v>0.24</v>
-      </c>
-      <c r="AB8">
-        <v>4182.59</v>
-      </c>
-      <c r="AC8">
-        <v>661.4</v>
-      </c>
-      <c r="AD8">
-        <v>69.70999999999999</v>
-      </c>
-      <c r="AE8">
-        <v>11.02</v>
+      <c r="AT8">
+        <v>13.66</v>
+      </c>
+      <c r="AU8">
+        <v>0.43</v>
+      </c>
+      <c r="AV8">
+        <v>3770.14</v>
+      </c>
+      <c r="AW8">
+        <v>679.04</v>
+      </c>
+      <c r="AX8">
+        <v>62.84</v>
+      </c>
+      <c r="AY8">
+        <v>11.32</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:51">
       <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>64.48</v>
@@ -1394,36 +1934,96 @@
         <v>64.48</v>
       </c>
       <c r="Y9">
+        <v>14.13</v>
+      </c>
+      <c r="Z9">
+        <v>1072.79</v>
+      </c>
+      <c r="AA9">
+        <v>17.88</v>
+      </c>
+      <c r="AB9">
+        <v>64.48</v>
+      </c>
+      <c r="AC9">
+        <v>15.27</v>
+      </c>
+      <c r="AD9">
+        <v>1649.13</v>
+      </c>
+      <c r="AE9">
+        <v>27.49</v>
+      </c>
+      <c r="AF9">
+        <v>64.48</v>
+      </c>
+      <c r="AG9">
+        <v>15.42</v>
+      </c>
+      <c r="AH9">
+        <v>1906.16</v>
+      </c>
+      <c r="AI9">
+        <v>31.77</v>
+      </c>
+      <c r="AJ9">
+        <v>64.48</v>
+      </c>
+      <c r="AK9">
+        <v>14.18</v>
+      </c>
+      <c r="AL9">
+        <v>1925.16</v>
+      </c>
+      <c r="AM9">
+        <v>32.09</v>
+      </c>
+      <c r="AN9">
+        <v>64.48</v>
+      </c>
+      <c r="AO9">
+        <v>13.54</v>
+      </c>
+      <c r="AP9">
+        <v>1878.64</v>
+      </c>
+      <c r="AQ9">
+        <v>31.31</v>
+      </c>
+      <c r="AR9">
+        <v>64.48</v>
+      </c>
+      <c r="AS9">
         <v>0</v>
       </c>
-      <c r="Z9">
-        <v>13.6</v>
-      </c>
-      <c r="AA9">
-        <v>0.84</v>
-      </c>
-      <c r="AB9">
-        <v>2019</v>
-      </c>
-      <c r="AC9">
-        <v>164.62</v>
-      </c>
-      <c r="AD9">
-        <v>33.65</v>
-      </c>
-      <c r="AE9">
-        <v>2.74</v>
+      <c r="AT9">
+        <v>14.05</v>
+      </c>
+      <c r="AU9">
+        <v>0.91</v>
+      </c>
+      <c r="AV9">
+        <v>1852.69</v>
+      </c>
+      <c r="AW9">
+        <v>317.13</v>
+      </c>
+      <c r="AX9">
+        <v>30.88</v>
+      </c>
+      <c r="AY9">
+        <v>5.29</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:51">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>17.85</v>
@@ -1489,36 +2089,96 @@
         <v>17.85</v>
       </c>
       <c r="Y10">
+        <v>13.71</v>
+      </c>
+      <c r="Z10">
+        <v>2218.28</v>
+      </c>
+      <c r="AA10">
+        <v>36.97</v>
+      </c>
+      <c r="AB10">
+        <v>17.85</v>
+      </c>
+      <c r="AC10">
+        <v>13.66</v>
+      </c>
+      <c r="AD10">
+        <v>3193.87</v>
+      </c>
+      <c r="AE10">
+        <v>53.23</v>
+      </c>
+      <c r="AF10">
+        <v>17.85</v>
+      </c>
+      <c r="AG10">
+        <v>13.83</v>
+      </c>
+      <c r="AH10">
+        <v>3536.95</v>
+      </c>
+      <c r="AI10">
+        <v>58.95</v>
+      </c>
+      <c r="AJ10">
+        <v>17.85</v>
+      </c>
+      <c r="AK10">
+        <v>13.69</v>
+      </c>
+      <c r="AL10">
+        <v>3471.32</v>
+      </c>
+      <c r="AM10">
+        <v>57.86</v>
+      </c>
+      <c r="AN10">
+        <v>17.85</v>
+      </c>
+      <c r="AO10">
+        <v>12.83</v>
+      </c>
+      <c r="AP10">
+        <v>3230.31</v>
+      </c>
+      <c r="AQ10">
+        <v>53.84</v>
+      </c>
+      <c r="AR10">
+        <v>17.85</v>
+      </c>
+      <c r="AS10">
         <v>0</v>
       </c>
-      <c r="Z10">
-        <v>13.96</v>
-      </c>
-      <c r="AA10">
-        <v>0.17</v>
-      </c>
-      <c r="AB10">
-        <v>4064.71</v>
-      </c>
-      <c r="AC10">
-        <v>788.39</v>
-      </c>
-      <c r="AD10">
-        <v>67.75</v>
-      </c>
-      <c r="AE10">
-        <v>13.14</v>
+      <c r="AT10">
+        <v>13.75</v>
+      </c>
+      <c r="AU10">
+        <v>0.37</v>
+      </c>
+      <c r="AV10">
+        <v>3597.43</v>
+      </c>
+      <c r="AW10">
+        <v>802.58</v>
+      </c>
+      <c r="AX10">
+        <v>59.96</v>
+      </c>
+      <c r="AY10">
+        <v>13.38</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:51">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>64.53</v>
@@ -1584,36 +2244,96 @@
         <v>64.53</v>
       </c>
       <c r="Y11">
+        <v>13.13</v>
+      </c>
+      <c r="Z11">
+        <v>1392.11</v>
+      </c>
+      <c r="AA11">
+        <v>23.2</v>
+      </c>
+      <c r="AB11">
+        <v>64.53</v>
+      </c>
+      <c r="AC11">
+        <v>13.05</v>
+      </c>
+      <c r="AD11">
+        <v>1489.99</v>
+      </c>
+      <c r="AE11">
+        <v>24.83</v>
+      </c>
+      <c r="AF11">
+        <v>64.53</v>
+      </c>
+      <c r="AG11">
+        <v>13.06</v>
+      </c>
+      <c r="AH11">
+        <v>1668.36</v>
+      </c>
+      <c r="AI11">
+        <v>27.81</v>
+      </c>
+      <c r="AJ11">
+        <v>64.53</v>
+      </c>
+      <c r="AK11">
+        <v>12.57</v>
+      </c>
+      <c r="AL11">
+        <v>1794.38</v>
+      </c>
+      <c r="AM11">
+        <v>29.91</v>
+      </c>
+      <c r="AN11">
+        <v>64.53</v>
+      </c>
+      <c r="AO11">
+        <v>12.36</v>
+      </c>
+      <c r="AP11">
+        <v>1882.14</v>
+      </c>
+      <c r="AQ11">
+        <v>31.37</v>
+      </c>
+      <c r="AR11">
+        <v>64.53</v>
+      </c>
+      <c r="AS11">
         <v>0</v>
       </c>
-      <c r="Z11">
-        <v>13.38</v>
-      </c>
-      <c r="AA11">
-        <v>0.98</v>
-      </c>
-      <c r="AB11">
-        <v>1873.94</v>
-      </c>
-      <c r="AC11">
-        <v>246.28</v>
-      </c>
-      <c r="AD11">
-        <v>31.23</v>
-      </c>
-      <c r="AE11">
-        <v>4.1</v>
+      <c r="AT11">
+        <v>13.11</v>
+      </c>
+      <c r="AU11">
+        <v>0.75</v>
+      </c>
+      <c r="AV11">
+        <v>1759.67</v>
+      </c>
+      <c r="AW11">
+        <v>245.01</v>
+      </c>
+      <c r="AX11">
+        <v>29.33</v>
+      </c>
+      <c r="AY11">
+        <v>4.08</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:51">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>70.3</v>
@@ -1679,36 +2399,96 @@
         <v>70.3</v>
       </c>
       <c r="Y12">
+        <v>15.06</v>
+      </c>
+      <c r="Z12">
+        <v>1235.19</v>
+      </c>
+      <c r="AA12">
+        <v>20.59</v>
+      </c>
+      <c r="AB12">
+        <v>70.3</v>
+      </c>
+      <c r="AC12">
+        <v>12.27</v>
+      </c>
+      <c r="AD12">
+        <v>1419.98</v>
+      </c>
+      <c r="AE12">
+        <v>23.67</v>
+      </c>
+      <c r="AF12">
+        <v>70.3</v>
+      </c>
+      <c r="AG12">
+        <v>12.91</v>
+      </c>
+      <c r="AH12">
+        <v>1476.17</v>
+      </c>
+      <c r="AI12">
+        <v>24.6</v>
+      </c>
+      <c r="AJ12">
+        <v>70.3</v>
+      </c>
+      <c r="AK12">
+        <v>12.4</v>
+      </c>
+      <c r="AL12">
+        <v>1599.12</v>
+      </c>
+      <c r="AM12">
+        <v>26.65</v>
+      </c>
+      <c r="AN12">
+        <v>70.3</v>
+      </c>
+      <c r="AO12">
+        <v>13.97</v>
+      </c>
+      <c r="AP12">
+        <v>1728.02</v>
+      </c>
+      <c r="AQ12">
+        <v>28.8</v>
+      </c>
+      <c r="AR12">
+        <v>70.3</v>
+      </c>
+      <c r="AS12">
         <v>0</v>
       </c>
-      <c r="Z12">
-        <v>13.14</v>
-      </c>
-      <c r="AA12">
-        <v>0.29</v>
-      </c>
-      <c r="AB12">
-        <v>1779.55</v>
-      </c>
-      <c r="AC12">
-        <v>336.49</v>
-      </c>
-      <c r="AD12">
-        <v>29.66</v>
-      </c>
-      <c r="AE12">
-        <v>5.61</v>
+      <c r="AT12">
+        <v>13.23</v>
+      </c>
+      <c r="AU12">
+        <v>0.82</v>
+      </c>
+      <c r="AV12">
+        <v>1635.63</v>
+      </c>
+      <c r="AW12">
+        <v>297.88</v>
+      </c>
+      <c r="AX12">
+        <v>27.26</v>
+      </c>
+      <c r="AY12">
+        <v>4.96</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:51">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>70.3</v>
@@ -1774,36 +2554,96 @@
         <v>70.3</v>
       </c>
       <c r="Y13">
+        <v>15.06</v>
+      </c>
+      <c r="Z13">
+        <v>1239.5</v>
+      </c>
+      <c r="AA13">
+        <v>20.66</v>
+      </c>
+      <c r="AB13">
+        <v>70.3</v>
+      </c>
+      <c r="AC13">
+        <v>12.27</v>
+      </c>
+      <c r="AD13">
+        <v>1465.68</v>
+      </c>
+      <c r="AE13">
+        <v>24.43</v>
+      </c>
+      <c r="AF13">
+        <v>70.3</v>
+      </c>
+      <c r="AG13">
+        <v>12.91</v>
+      </c>
+      <c r="AH13">
+        <v>1533.92</v>
+      </c>
+      <c r="AI13">
+        <v>25.57</v>
+      </c>
+      <c r="AJ13">
+        <v>70.3</v>
+      </c>
+      <c r="AK13">
+        <v>12.4</v>
+      </c>
+      <c r="AL13">
+        <v>1627.47</v>
+      </c>
+      <c r="AM13">
+        <v>27.12</v>
+      </c>
+      <c r="AN13">
+        <v>70.3</v>
+      </c>
+      <c r="AO13">
+        <v>13.97</v>
+      </c>
+      <c r="AP13">
+        <v>1621.98</v>
+      </c>
+      <c r="AQ13">
+        <v>27.03</v>
+      </c>
+      <c r="AR13">
+        <v>70.3</v>
+      </c>
+      <c r="AS13">
         <v>0</v>
       </c>
-      <c r="Z13">
-        <v>13.14</v>
-      </c>
-      <c r="AA13">
-        <v>0.29</v>
-      </c>
-      <c r="AB13">
-        <v>1736.13</v>
-      </c>
-      <c r="AC13">
-        <v>294.86</v>
-      </c>
-      <c r="AD13">
-        <v>28.94</v>
-      </c>
-      <c r="AE13">
-        <v>4.91</v>
+      <c r="AT13">
+        <v>13.23</v>
+      </c>
+      <c r="AU13">
+        <v>0.82</v>
+      </c>
+      <c r="AV13">
+        <v>1616.92</v>
+      </c>
+      <c r="AW13">
+        <v>256.29</v>
+      </c>
+      <c r="AX13">
+        <v>26.95</v>
+      </c>
+      <c r="AY13">
+        <v>4.27</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:51">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>17.85</v>
@@ -1869,36 +2709,96 @@
         <v>17.85</v>
       </c>
       <c r="Y14">
+        <v>13.71</v>
+      </c>
+      <c r="Z14">
+        <v>2240.58</v>
+      </c>
+      <c r="AA14">
+        <v>37.34</v>
+      </c>
+      <c r="AB14">
+        <v>17.85</v>
+      </c>
+      <c r="AC14">
+        <v>13.66</v>
+      </c>
+      <c r="AD14">
+        <v>3185.26</v>
+      </c>
+      <c r="AE14">
+        <v>53.09</v>
+      </c>
+      <c r="AF14">
+        <v>17.85</v>
+      </c>
+      <c r="AG14">
+        <v>13.83</v>
+      </c>
+      <c r="AH14">
+        <v>3759.3</v>
+      </c>
+      <c r="AI14">
+        <v>62.66</v>
+      </c>
+      <c r="AJ14">
+        <v>17.85</v>
+      </c>
+      <c r="AK14">
+        <v>13.69</v>
+      </c>
+      <c r="AL14">
+        <v>3280.76</v>
+      </c>
+      <c r="AM14">
+        <v>54.68</v>
+      </c>
+      <c r="AN14">
+        <v>17.85</v>
+      </c>
+      <c r="AO14">
+        <v>12.83</v>
+      </c>
+      <c r="AP14">
+        <v>3376.08</v>
+      </c>
+      <c r="AQ14">
+        <v>56.27</v>
+      </c>
+      <c r="AR14">
+        <v>17.85</v>
+      </c>
+      <c r="AS14">
         <v>0</v>
       </c>
-      <c r="Z14">
-        <v>13.96</v>
-      </c>
-      <c r="AA14">
-        <v>0.17</v>
-      </c>
-      <c r="AB14">
-        <v>4026.56</v>
-      </c>
-      <c r="AC14">
-        <v>750.01</v>
-      </c>
-      <c r="AD14">
-        <v>67.11</v>
-      </c>
-      <c r="AE14">
-        <v>12.5</v>
+      <c r="AT14">
+        <v>13.75</v>
+      </c>
+      <c r="AU14">
+        <v>0.37</v>
+      </c>
+      <c r="AV14">
+        <v>3597.48</v>
+      </c>
+      <c r="AW14">
+        <v>771.52</v>
+      </c>
+      <c r="AX14">
+        <v>59.96</v>
+      </c>
+      <c r="AY14">
+        <v>12.86</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:51">
       <c r="A15" s="1">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>34.27</v>
@@ -1964,36 +2864,96 @@
         <v>34.27</v>
       </c>
       <c r="Y15">
+        <v>13.47</v>
+      </c>
+      <c r="Z15">
+        <v>2113.06</v>
+      </c>
+      <c r="AA15">
+        <v>35.22</v>
+      </c>
+      <c r="AB15">
+        <v>34.27</v>
+      </c>
+      <c r="AC15">
+        <v>13.76</v>
+      </c>
+      <c r="AD15">
+        <v>2514.65</v>
+      </c>
+      <c r="AE15">
+        <v>41.91</v>
+      </c>
+      <c r="AF15">
+        <v>34.27</v>
+      </c>
+      <c r="AG15">
+        <v>13.43</v>
+      </c>
+      <c r="AH15">
+        <v>2895.35</v>
+      </c>
+      <c r="AI15">
+        <v>48.26</v>
+      </c>
+      <c r="AJ15">
+        <v>34.27</v>
+      </c>
+      <c r="AK15">
+        <v>13.58</v>
+      </c>
+      <c r="AL15">
+        <v>3271.02</v>
+      </c>
+      <c r="AM15">
+        <v>54.52</v>
+      </c>
+      <c r="AN15">
+        <v>34.27</v>
+      </c>
+      <c r="AO15">
+        <v>13.03</v>
+      </c>
+      <c r="AP15">
+        <v>2903.36</v>
+      </c>
+      <c r="AQ15">
+        <v>48.39</v>
+      </c>
+      <c r="AR15">
+        <v>34.27</v>
+      </c>
+      <c r="AS15">
         <v>0</v>
       </c>
-      <c r="Z15">
-        <v>14.04</v>
-      </c>
-      <c r="AA15">
-        <v>0.33</v>
-      </c>
-      <c r="AB15">
-        <v>3229.52</v>
-      </c>
-      <c r="AC15">
-        <v>651.53</v>
-      </c>
-      <c r="AD15">
-        <v>53.83</v>
-      </c>
-      <c r="AE15">
-        <v>10.86</v>
+      <c r="AT15">
+        <v>13.75</v>
+      </c>
+      <c r="AU15">
+        <v>0.42</v>
+      </c>
+      <c r="AV15">
+        <v>2984.51</v>
+      </c>
+      <c r="AW15">
+        <v>584.51</v>
+      </c>
+      <c r="AX15">
+        <v>49.74</v>
+      </c>
+      <c r="AY15">
+        <v>9.74</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:51">
       <c r="A16" s="1">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>0.1</v>
@@ -2059,36 +3019,96 @@
         <v>0.1</v>
       </c>
       <c r="Y16">
+        <v>13.91</v>
+      </c>
+      <c r="Z16">
+        <v>2668.75</v>
+      </c>
+      <c r="AA16">
+        <v>44.48</v>
+      </c>
+      <c r="AB16">
+        <v>0.1</v>
+      </c>
+      <c r="AC16">
+        <v>12.76</v>
+      </c>
+      <c r="AD16">
+        <v>3247.06</v>
+      </c>
+      <c r="AE16">
+        <v>54.12</v>
+      </c>
+      <c r="AF16">
+        <v>0.1</v>
+      </c>
+      <c r="AG16">
+        <v>14.5</v>
+      </c>
+      <c r="AH16">
+        <v>3885.64</v>
+      </c>
+      <c r="AI16">
+        <v>64.76000000000001</v>
+      </c>
+      <c r="AJ16">
+        <v>0.1</v>
+      </c>
+      <c r="AK16">
+        <v>13.49</v>
+      </c>
+      <c r="AL16">
+        <v>3796.44</v>
+      </c>
+      <c r="AM16">
+        <v>63.27</v>
+      </c>
+      <c r="AN16">
+        <v>0.1</v>
+      </c>
+      <c r="AO16">
+        <v>13.57</v>
+      </c>
+      <c r="AP16">
+        <v>3734.81</v>
+      </c>
+      <c r="AQ16">
+        <v>62.25</v>
+      </c>
+      <c r="AR16">
+        <v>0.1</v>
+      </c>
+      <c r="AS16">
         <v>0</v>
       </c>
-      <c r="Z16">
-        <v>13.71</v>
-      </c>
-      <c r="AA16">
-        <v>0.67</v>
-      </c>
-      <c r="AB16">
-        <v>4352.32</v>
-      </c>
-      <c r="AC16">
-        <v>674.27</v>
-      </c>
-      <c r="AD16">
-        <v>72.54000000000001</v>
-      </c>
-      <c r="AE16">
-        <v>11.24</v>
+      <c r="AT16">
+        <v>13.68</v>
+      </c>
+      <c r="AU16">
+        <v>0.61</v>
+      </c>
+      <c r="AV16">
+        <v>3909.43</v>
+      </c>
+      <c r="AW16">
+        <v>731.91</v>
+      </c>
+      <c r="AX16">
+        <v>65.16</v>
+      </c>
+      <c r="AY16">
+        <v>12.2</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:51">
       <c r="A17" s="1">
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>0.2</v>
@@ -2154,36 +3174,96 @@
         <v>0.2</v>
       </c>
       <c r="Y17">
+        <v>14.56</v>
+      </c>
+      <c r="Z17">
+        <v>2136.43</v>
+      </c>
+      <c r="AA17">
+        <v>35.61</v>
+      </c>
+      <c r="AB17">
+        <v>0.2</v>
+      </c>
+      <c r="AC17">
+        <v>13.84</v>
+      </c>
+      <c r="AD17">
+        <v>2946.02</v>
+      </c>
+      <c r="AE17">
+        <v>49.1</v>
+      </c>
+      <c r="AF17">
+        <v>0.2</v>
+      </c>
+      <c r="AG17">
+        <v>13.97</v>
+      </c>
+      <c r="AH17">
+        <v>3376.1</v>
+      </c>
+      <c r="AI17">
+        <v>56.27</v>
+      </c>
+      <c r="AJ17">
+        <v>0.2</v>
+      </c>
+      <c r="AK17">
+        <v>13.92</v>
+      </c>
+      <c r="AL17">
+        <v>3433.94</v>
+      </c>
+      <c r="AM17">
+        <v>57.23</v>
+      </c>
+      <c r="AN17">
+        <v>0.2</v>
+      </c>
+      <c r="AO17">
+        <v>13.71</v>
+      </c>
+      <c r="AP17">
+        <v>3371.02</v>
+      </c>
+      <c r="AQ17">
+        <v>56.18</v>
+      </c>
+      <c r="AR17">
+        <v>0.2</v>
+      </c>
+      <c r="AS17">
         <v>0</v>
       </c>
-      <c r="Z17">
-        <v>13.98</v>
-      </c>
-      <c r="AA17">
-        <v>0.18</v>
-      </c>
-      <c r="AB17">
-        <v>3733.96</v>
-      </c>
-      <c r="AC17">
-        <v>677.51</v>
-      </c>
-      <c r="AD17">
-        <v>62.23</v>
-      </c>
-      <c r="AE17">
-        <v>11.29</v>
+      <c r="AT17">
+        <v>13.99</v>
+      </c>
+      <c r="AU17">
+        <v>0.25</v>
+      </c>
+      <c r="AV17">
+        <v>3393.33</v>
+      </c>
+      <c r="AW17">
+        <v>683.01</v>
+      </c>
+      <c r="AX17">
+        <v>56.56</v>
+      </c>
+      <c r="AY17">
+        <v>11.38</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:51">
       <c r="A18" s="1">
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>0.3</v>
@@ -2249,36 +3329,96 @@
         <v>0.3</v>
       </c>
       <c r="Y18">
+        <v>13.27</v>
+      </c>
+      <c r="Z18">
+        <v>2125.77</v>
+      </c>
+      <c r="AA18">
+        <v>35.43</v>
+      </c>
+      <c r="AB18">
+        <v>0.3</v>
+      </c>
+      <c r="AC18">
+        <v>13.7</v>
+      </c>
+      <c r="AD18">
+        <v>2442.95</v>
+      </c>
+      <c r="AE18">
+        <v>40.72</v>
+      </c>
+      <c r="AF18">
+        <v>0.3</v>
+      </c>
+      <c r="AG18">
+        <v>13.92</v>
+      </c>
+      <c r="AH18">
+        <v>3157.45</v>
+      </c>
+      <c r="AI18">
+        <v>52.62</v>
+      </c>
+      <c r="AJ18">
+        <v>0.3</v>
+      </c>
+      <c r="AK18">
+        <v>14.15</v>
+      </c>
+      <c r="AL18">
+        <v>3175.52</v>
+      </c>
+      <c r="AM18">
+        <v>52.93</v>
+      </c>
+      <c r="AN18">
+        <v>0.3</v>
+      </c>
+      <c r="AO18">
+        <v>13.89</v>
+      </c>
+      <c r="AP18">
+        <v>3234.33</v>
+      </c>
+      <c r="AQ18">
+        <v>53.91</v>
+      </c>
+      <c r="AR18">
+        <v>0.3</v>
+      </c>
+      <c r="AS18">
         <v>0</v>
       </c>
-      <c r="Z18">
-        <v>14.12</v>
-      </c>
-      <c r="AA18">
-        <v>0.52</v>
-      </c>
-      <c r="AB18">
-        <v>3478.07</v>
-      </c>
-      <c r="AC18">
-        <v>562.89</v>
-      </c>
-      <c r="AD18">
-        <v>57.97</v>
-      </c>
-      <c r="AE18">
-        <v>9.380000000000001</v>
+      <c r="AT18">
+        <v>13.95</v>
+      </c>
+      <c r="AU18">
+        <v>0.45</v>
+      </c>
+      <c r="AV18">
+        <v>3152.64</v>
+      </c>
+      <c r="AW18">
+        <v>611.21</v>
+      </c>
+      <c r="AX18">
+        <v>52.54</v>
+      </c>
+      <c r="AY18">
+        <v>10.19</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:51">
       <c r="A19" s="1">
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>0.4</v>
@@ -2344,36 +3484,96 @@
         <v>0.4</v>
       </c>
       <c r="Y19">
+        <v>15.26</v>
+      </c>
+      <c r="Z19">
+        <v>1937.5</v>
+      </c>
+      <c r="AA19">
+        <v>32.29</v>
+      </c>
+      <c r="AB19">
+        <v>0.4</v>
+      </c>
+      <c r="AC19">
+        <v>14.52</v>
+      </c>
+      <c r="AD19">
+        <v>2286.2</v>
+      </c>
+      <c r="AE19">
+        <v>38.1</v>
+      </c>
+      <c r="AF19">
+        <v>0.4</v>
+      </c>
+      <c r="AG19">
+        <v>13.42</v>
+      </c>
+      <c r="AH19">
+        <v>2912.53</v>
+      </c>
+      <c r="AI19">
+        <v>48.54</v>
+      </c>
+      <c r="AJ19">
+        <v>0.4</v>
+      </c>
+      <c r="AK19">
+        <v>14.13</v>
+      </c>
+      <c r="AL19">
+        <v>2504.98</v>
+      </c>
+      <c r="AM19">
+        <v>41.75</v>
+      </c>
+      <c r="AN19">
+        <v>0.4</v>
+      </c>
+      <c r="AO19">
+        <v>14.9</v>
+      </c>
+      <c r="AP19">
+        <v>2689.93</v>
+      </c>
+      <c r="AQ19">
+        <v>44.83</v>
+      </c>
+      <c r="AR19">
+        <v>0.4</v>
+      </c>
+      <c r="AS19">
         <v>0</v>
       </c>
-      <c r="Z19">
-        <v>14.16</v>
-      </c>
-      <c r="AA19">
-        <v>0.91</v>
-      </c>
-      <c r="AB19">
-        <v>2955.45</v>
-      </c>
-      <c r="AC19">
-        <v>673.34</v>
-      </c>
-      <c r="AD19">
-        <v>49.26</v>
-      </c>
-      <c r="AE19">
-        <v>11.22</v>
+      <c r="AT19">
+        <v>14.3</v>
+      </c>
+      <c r="AU19">
+        <v>0.78</v>
+      </c>
+      <c r="AV19">
+        <v>2710.84</v>
+      </c>
+      <c r="AW19">
+        <v>574.9</v>
+      </c>
+      <c r="AX19">
+        <v>45.18</v>
+      </c>
+      <c r="AY19">
+        <v>9.58</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:51">
       <c r="A20" s="1">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D20">
         <v>0.5</v>
@@ -2439,36 +3639,96 @@
         <v>0.5</v>
       </c>
       <c r="Y20">
+        <v>15.89</v>
+      </c>
+      <c r="Z20">
+        <v>1753.44</v>
+      </c>
+      <c r="AA20">
+        <v>29.22</v>
+      </c>
+      <c r="AB20">
+        <v>0.5</v>
+      </c>
+      <c r="AC20">
+        <v>14.19</v>
+      </c>
+      <c r="AD20">
+        <v>2199.22</v>
+      </c>
+      <c r="AE20">
+        <v>36.65</v>
+      </c>
+      <c r="AF20">
+        <v>0.5</v>
+      </c>
+      <c r="AG20">
+        <v>15.71</v>
+      </c>
+      <c r="AH20">
+        <v>2168.34</v>
+      </c>
+      <c r="AI20">
+        <v>36.14</v>
+      </c>
+      <c r="AJ20">
+        <v>0.5</v>
+      </c>
+      <c r="AK20">
+        <v>12.62</v>
+      </c>
+      <c r="AL20">
+        <v>2602.6</v>
+      </c>
+      <c r="AM20">
+        <v>43.38</v>
+      </c>
+      <c r="AN20">
+        <v>0.5</v>
+      </c>
+      <c r="AO20">
+        <v>15.58</v>
+      </c>
+      <c r="AP20">
+        <v>2354.01</v>
+      </c>
+      <c r="AQ20">
+        <v>39.23</v>
+      </c>
+      <c r="AR20">
+        <v>0.5</v>
+      </c>
+      <c r="AS20">
         <v>0</v>
       </c>
-      <c r="Z20">
-        <v>13.95</v>
-      </c>
-      <c r="AA20">
-        <v>0.37</v>
-      </c>
-      <c r="AB20">
-        <v>2768.89</v>
-      </c>
-      <c r="AC20">
-        <v>568.16</v>
-      </c>
-      <c r="AD20">
-        <v>46.15</v>
-      </c>
-      <c r="AE20">
-        <v>9.470000000000001</v>
+      <c r="AT20">
+        <v>14.37</v>
+      </c>
+      <c r="AU20">
+        <v>1.06</v>
+      </c>
+      <c r="AV20">
+        <v>2492.21</v>
+      </c>
+      <c r="AW20">
+        <v>520.87</v>
+      </c>
+      <c r="AX20">
+        <v>41.54</v>
+      </c>
+      <c r="AY20">
+        <v>8.68</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:51">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>0.6</v>
@@ -2534,36 +3794,96 @@
         <v>0.6</v>
       </c>
       <c r="Y21">
+        <v>14.49</v>
+      </c>
+      <c r="Z21">
+        <v>1156.44</v>
+      </c>
+      <c r="AA21">
+        <v>19.27</v>
+      </c>
+      <c r="AB21">
+        <v>0.6</v>
+      </c>
+      <c r="AC21">
+        <v>14.05</v>
+      </c>
+      <c r="AD21">
+        <v>1729.42</v>
+      </c>
+      <c r="AE21">
+        <v>28.82</v>
+      </c>
+      <c r="AF21">
+        <v>0.6</v>
+      </c>
+      <c r="AG21">
+        <v>15.26</v>
+      </c>
+      <c r="AH21">
+        <v>2126.36</v>
+      </c>
+      <c r="AI21">
+        <v>35.44</v>
+      </c>
+      <c r="AJ21">
+        <v>0.6</v>
+      </c>
+      <c r="AK21">
+        <v>13.55</v>
+      </c>
+      <c r="AL21">
+        <v>1806.51</v>
+      </c>
+      <c r="AM21">
+        <v>30.11</v>
+      </c>
+      <c r="AN21">
+        <v>0.6</v>
+      </c>
+      <c r="AO21">
+        <v>15.36</v>
+      </c>
+      <c r="AP21">
+        <v>1841.51</v>
+      </c>
+      <c r="AQ21">
+        <v>30.69</v>
+      </c>
+      <c r="AR21">
+        <v>0.6</v>
+      </c>
+      <c r="AS21">
         <v>0</v>
       </c>
-      <c r="Z21">
-        <v>14.48</v>
-      </c>
-      <c r="AA21">
-        <v>0.67</v>
-      </c>
-      <c r="AB21">
-        <v>2337.16</v>
-      </c>
-      <c r="AC21">
-        <v>409.77</v>
-      </c>
-      <c r="AD21">
-        <v>38.95</v>
-      </c>
-      <c r="AE21">
-        <v>6.83</v>
+      <c r="AT21">
+        <v>14.51</v>
+      </c>
+      <c r="AU21">
+        <v>0.68</v>
+      </c>
+      <c r="AV21">
+        <v>2034.6</v>
+      </c>
+      <c r="AW21">
+        <v>482.05</v>
+      </c>
+      <c r="AX21">
+        <v>33.91</v>
+      </c>
+      <c r="AY21">
+        <v>8.029999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:51">
       <c r="A22" s="1">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>0.7</v>
@@ -2629,36 +3949,96 @@
         <v>0.7</v>
       </c>
       <c r="Y22">
+        <v>19.83</v>
+      </c>
+      <c r="Z22">
+        <v>987.3099999999999</v>
+      </c>
+      <c r="AA22">
+        <v>16.46</v>
+      </c>
+      <c r="AB22">
+        <v>0.7</v>
+      </c>
+      <c r="AC22">
+        <v>27.49</v>
+      </c>
+      <c r="AD22">
+        <v>1292.56</v>
+      </c>
+      <c r="AE22">
+        <v>21.54</v>
+      </c>
+      <c r="AF22">
+        <v>0.7</v>
+      </c>
+      <c r="AG22">
+        <v>28.64</v>
+      </c>
+      <c r="AH22">
+        <v>1685.87</v>
+      </c>
+      <c r="AI22">
+        <v>28.1</v>
+      </c>
+      <c r="AJ22">
+        <v>0.7</v>
+      </c>
+      <c r="AK22">
+        <v>25.46</v>
+      </c>
+      <c r="AL22">
+        <v>1683.02</v>
+      </c>
+      <c r="AM22">
+        <v>28.05</v>
+      </c>
+      <c r="AN22">
+        <v>0.7</v>
+      </c>
+      <c r="AO22">
+        <v>20.37</v>
+      </c>
+      <c r="AP22">
+        <v>1551.54</v>
+      </c>
+      <c r="AQ22">
+        <v>25.86</v>
+      </c>
+      <c r="AR22">
+        <v>0.7</v>
+      </c>
+      <c r="AS22">
         <v>0</v>
       </c>
-      <c r="Z22">
-        <v>25.29</v>
-      </c>
-      <c r="AA22">
-        <v>10.28</v>
-      </c>
-      <c r="AB22">
-        <v>1754.71</v>
-      </c>
-      <c r="AC22">
-        <v>237.18</v>
-      </c>
-      <c r="AD22">
-        <v>29.25</v>
-      </c>
-      <c r="AE22">
-        <v>3.95</v>
+      <c r="AT22">
+        <v>24.82</v>
+      </c>
+      <c r="AU22">
+        <v>7.39</v>
+      </c>
+      <c r="AV22">
+        <v>1597.38</v>
+      </c>
+      <c r="AW22">
+        <v>303.89</v>
+      </c>
+      <c r="AX22">
+        <v>26.62</v>
+      </c>
+      <c r="AY22">
+        <v>5.06</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:51">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>0.8</v>
@@ -2724,36 +4104,96 @@
         <v>0.8</v>
       </c>
       <c r="Y23">
+        <v>13.08</v>
+      </c>
+      <c r="Z23">
+        <v>864.87</v>
+      </c>
+      <c r="AA23">
+        <v>14.41</v>
+      </c>
+      <c r="AB23">
+        <v>0.8</v>
+      </c>
+      <c r="AC23">
+        <v>12.77</v>
+      </c>
+      <c r="AD23">
+        <v>1167.32</v>
+      </c>
+      <c r="AE23">
+        <v>19.46</v>
+      </c>
+      <c r="AF23">
+        <v>0.8</v>
+      </c>
+      <c r="AG23">
+        <v>12.2</v>
+      </c>
+      <c r="AH23">
+        <v>1336.24</v>
+      </c>
+      <c r="AI23">
+        <v>22.27</v>
+      </c>
+      <c r="AJ23">
+        <v>0.8</v>
+      </c>
+      <c r="AK23">
+        <v>12.72</v>
+      </c>
+      <c r="AL23">
+        <v>1194.11</v>
+      </c>
+      <c r="AM23">
+        <v>19.9</v>
+      </c>
+      <c r="AN23">
+        <v>0.8</v>
+      </c>
+      <c r="AO23">
+        <v>13.94</v>
+      </c>
+      <c r="AP23">
+        <v>1239.73</v>
+      </c>
+      <c r="AQ23">
+        <v>20.66</v>
+      </c>
+      <c r="AR23">
+        <v>0.8</v>
+      </c>
+      <c r="AS23">
         <v>0</v>
       </c>
-      <c r="Z23">
-        <v>13.28</v>
-      </c>
-      <c r="AA23">
-        <v>0.44</v>
-      </c>
-      <c r="AB23">
-        <v>1519.01</v>
-      </c>
-      <c r="AC23">
-        <v>203.3</v>
-      </c>
-      <c r="AD23">
-        <v>25.32</v>
-      </c>
-      <c r="AE23">
-        <v>3.39</v>
+      <c r="AT23">
+        <v>13.11</v>
+      </c>
+      <c r="AU23">
+        <v>0.55</v>
+      </c>
+      <c r="AV23">
+        <v>1339.73</v>
+      </c>
+      <c r="AW23">
+        <v>260.87</v>
+      </c>
+      <c r="AX23">
+        <v>22.33</v>
+      </c>
+      <c r="AY23">
+        <v>4.35</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:51">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>0.9</v>
@@ -2819,36 +4259,96 @@
         <v>0.9</v>
       </c>
       <c r="Y24">
+        <v>14.04</v>
+      </c>
+      <c r="Z24">
+        <v>595.59</v>
+      </c>
+      <c r="AA24">
+        <v>9.93</v>
+      </c>
+      <c r="AB24">
+        <v>0.9</v>
+      </c>
+      <c r="AC24">
+        <v>14.12</v>
+      </c>
+      <c r="AD24">
+        <v>527.5599999999999</v>
+      </c>
+      <c r="AE24">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="AF24">
+        <v>0.9</v>
+      </c>
+      <c r="AG24">
+        <v>15.06</v>
+      </c>
+      <c r="AH24">
+        <v>704.11</v>
+      </c>
+      <c r="AI24">
+        <v>11.74</v>
+      </c>
+      <c r="AJ24">
+        <v>0.9</v>
+      </c>
+      <c r="AK24">
+        <v>13.72</v>
+      </c>
+      <c r="AL24">
+        <v>676.52</v>
+      </c>
+      <c r="AM24">
+        <v>11.28</v>
+      </c>
+      <c r="AN24">
+        <v>0.9</v>
+      </c>
+      <c r="AO24">
+        <v>13.23</v>
+      </c>
+      <c r="AP24">
+        <v>963.1799999999999</v>
+      </c>
+      <c r="AQ24">
+        <v>16.05</v>
+      </c>
+      <c r="AR24">
+        <v>0.9</v>
+      </c>
+      <c r="AS24">
         <v>0</v>
       </c>
-      <c r="Z24">
-        <v>14.76</v>
-      </c>
-      <c r="AA24">
-        <v>0.76</v>
-      </c>
-      <c r="AB24">
-        <v>732.9400000000001</v>
-      </c>
-      <c r="AC24">
-        <v>62.2</v>
-      </c>
-      <c r="AD24">
-        <v>12.22</v>
-      </c>
-      <c r="AE24">
-        <v>1.04</v>
+      <c r="AT24">
+        <v>14.4</v>
+      </c>
+      <c r="AU24">
+        <v>0.78</v>
+      </c>
+      <c r="AV24">
+        <v>713.17</v>
+      </c>
+      <c r="AW24">
+        <v>120.02</v>
+      </c>
+      <c r="AX24">
+        <v>11.89</v>
+      </c>
+      <c r="AY24">
+        <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:51">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2914,36 +4414,96 @@
         <v>0</v>
       </c>
       <c r="Y25">
+        <v>13.63</v>
+      </c>
+      <c r="Z25">
+        <v>2813.3</v>
+      </c>
+      <c r="AA25">
+        <v>46.89</v>
+      </c>
+      <c r="AB25">
         <v>0</v>
       </c>
-      <c r="Z25">
-        <v>13.94</v>
-      </c>
-      <c r="AA25">
-        <v>0.4</v>
-      </c>
-      <c r="AB25">
-        <v>4557.03</v>
-      </c>
       <c r="AC25">
-        <v>602</v>
+        <v>13.74</v>
       </c>
       <c r="AD25">
-        <v>75.95</v>
+        <v>3534.55</v>
       </c>
       <c r="AE25">
-        <v>10.03</v>
+        <v>58.91</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>13.91</v>
+      </c>
+      <c r="AH25">
+        <v>4227.87</v>
+      </c>
+      <c r="AI25">
+        <v>70.45999999999999</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>13.61</v>
+      </c>
+      <c r="AL25">
+        <v>4285.53</v>
+      </c>
+      <c r="AM25">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>14.04</v>
+      </c>
+      <c r="AP25">
+        <v>4095.9</v>
+      </c>
+      <c r="AQ25">
+        <v>68.27</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>13.86</v>
+      </c>
+      <c r="AU25">
+        <v>0.3</v>
+      </c>
+      <c r="AV25">
+        <v>4174.23</v>
+      </c>
+      <c r="AW25">
+        <v>704.36</v>
+      </c>
+      <c r="AX25">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AY25">
+        <v>11.74</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:51">
       <c r="A26" s="1">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>64.5</v>
@@ -3009,36 +4569,96 @@
         <v>64.5</v>
       </c>
       <c r="Y26">
+        <v>13.11</v>
+      </c>
+      <c r="Z26">
+        <v>1326.89</v>
+      </c>
+      <c r="AA26">
+        <v>22.11</v>
+      </c>
+      <c r="AB26">
+        <v>64.5</v>
+      </c>
+      <c r="AC26">
+        <v>13.01</v>
+      </c>
+      <c r="AD26">
+        <v>1535.93</v>
+      </c>
+      <c r="AE26">
+        <v>25.6</v>
+      </c>
+      <c r="AF26">
+        <v>64.5</v>
+      </c>
+      <c r="AG26">
+        <v>13.08</v>
+      </c>
+      <c r="AH26">
+        <v>1796.58</v>
+      </c>
+      <c r="AI26">
+        <v>29.94</v>
+      </c>
+      <c r="AJ26">
+        <v>64.5</v>
+      </c>
+      <c r="AK26">
+        <v>13.37</v>
+      </c>
+      <c r="AL26">
+        <v>1791.91</v>
+      </c>
+      <c r="AM26">
+        <v>29.87</v>
+      </c>
+      <c r="AN26">
+        <v>64.5</v>
+      </c>
+      <c r="AO26">
+        <v>12.06</v>
+      </c>
+      <c r="AP26">
+        <v>1718.71</v>
+      </c>
+      <c r="AQ26">
+        <v>28.65</v>
+      </c>
+      <c r="AR26">
+        <v>64.5</v>
+      </c>
+      <c r="AS26">
         <v>0</v>
       </c>
-      <c r="Z26">
-        <v>13.23</v>
-      </c>
-      <c r="AA26">
-        <v>0.63</v>
-      </c>
-      <c r="AB26">
-        <v>1984.34</v>
-      </c>
-      <c r="AC26">
-        <v>386.53</v>
-      </c>
-      <c r="AD26">
-        <v>33.07</v>
-      </c>
-      <c r="AE26">
-        <v>6.44</v>
+      <c r="AT26">
+        <v>13.08</v>
+      </c>
+      <c r="AU26">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AV26">
+        <v>1809.17</v>
+      </c>
+      <c r="AW26">
+        <v>344.31</v>
+      </c>
+      <c r="AX26">
+        <v>30.15</v>
+      </c>
+      <c r="AY26">
+        <v>5.74</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:51">
       <c r="A27" s="1">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>78.40000000000001</v>
@@ -3104,36 +4724,96 @@
         <v>78.40000000000001</v>
       </c>
       <c r="Y27">
+        <v>12.53</v>
+      </c>
+      <c r="Z27">
+        <v>876.42</v>
+      </c>
+      <c r="AA27">
+        <v>14.61</v>
+      </c>
+      <c r="AB27">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="AC27">
+        <v>12.71</v>
+      </c>
+      <c r="AD27">
+        <v>1164.94</v>
+      </c>
+      <c r="AE27">
+        <v>19.42</v>
+      </c>
+      <c r="AF27">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="AG27">
+        <v>12.54</v>
+      </c>
+      <c r="AH27">
+        <v>1373.87</v>
+      </c>
+      <c r="AI27">
+        <v>22.9</v>
+      </c>
+      <c r="AJ27">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="AK27">
+        <v>12.73</v>
+      </c>
+      <c r="AL27">
+        <v>1241.25</v>
+      </c>
+      <c r="AM27">
+        <v>20.69</v>
+      </c>
+      <c r="AN27">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="AO27">
+        <v>13.95</v>
+      </c>
+      <c r="AP27">
+        <v>1233.66</v>
+      </c>
+      <c r="AQ27">
+        <v>20.56</v>
+      </c>
+      <c r="AR27">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="AS27">
         <v>0</v>
       </c>
-      <c r="Z27">
+      <c r="AT27">
         <v>12.9</v>
       </c>
-      <c r="AA27">
-        <v>0.26</v>
-      </c>
-      <c r="AB27">
-        <v>1450.66</v>
-      </c>
-      <c r="AC27">
-        <v>316.76</v>
-      </c>
-      <c r="AD27">
-        <v>24.18</v>
-      </c>
-      <c r="AE27">
-        <v>5.28</v>
+      <c r="AU27">
+        <v>0.43</v>
+      </c>
+      <c r="AV27">
+        <v>1314.35</v>
+      </c>
+      <c r="AW27">
+        <v>283.58</v>
+      </c>
+      <c r="AX27">
+        <v>21.91</v>
+      </c>
+      <c r="AY27">
+        <v>4.73</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:51">
       <c r="A28" s="1">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>64.54000000000001</v>
@@ -3199,36 +4879,96 @@
         <v>64.54000000000001</v>
       </c>
       <c r="Y28">
+        <v>13.06</v>
+      </c>
+      <c r="Z28">
+        <v>1255.07</v>
+      </c>
+      <c r="AA28">
+        <v>20.92</v>
+      </c>
+      <c r="AB28">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="AC28">
+        <v>13.05</v>
+      </c>
+      <c r="AD28">
+        <v>1562.21</v>
+      </c>
+      <c r="AE28">
+        <v>26.04</v>
+      </c>
+      <c r="AF28">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="AG28">
+        <v>13.09</v>
+      </c>
+      <c r="AH28">
+        <v>1891.29</v>
+      </c>
+      <c r="AI28">
+        <v>31.52</v>
+      </c>
+      <c r="AJ28">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="AK28">
+        <v>12.41</v>
+      </c>
+      <c r="AL28">
+        <v>1800.31</v>
+      </c>
+      <c r="AM28">
+        <v>30.01</v>
+      </c>
+      <c r="AN28">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="AO28">
+        <v>13.96</v>
+      </c>
+      <c r="AP28">
+        <v>1671.14</v>
+      </c>
+      <c r="AQ28">
+        <v>27.85</v>
+      </c>
+      <c r="AR28">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="AS28">
         <v>0</v>
       </c>
-      <c r="Z28">
-        <v>12.9</v>
-      </c>
-      <c r="AA28">
-        <v>0.28</v>
-      </c>
-      <c r="AB28">
-        <v>1910.92</v>
-      </c>
-      <c r="AC28">
-        <v>360.18</v>
-      </c>
-      <c r="AD28">
-        <v>31.85</v>
-      </c>
-      <c r="AE28">
-        <v>6</v>
+      <c r="AT28">
+        <v>13.01</v>
+      </c>
+      <c r="AU28">
+        <v>0.43</v>
+      </c>
+      <c r="AV28">
+        <v>1773.46</v>
+      </c>
+      <c r="AW28">
+        <v>325.21</v>
+      </c>
+      <c r="AX28">
+        <v>29.56</v>
+      </c>
+      <c r="AY28">
+        <v>5.42</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:51">
       <c r="A29" s="1">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>30.96</v>
@@ -3294,36 +5034,96 @@
         <v>30.96</v>
       </c>
       <c r="Y29">
+        <v>13.35</v>
+      </c>
+      <c r="Z29">
+        <v>2091.53</v>
+      </c>
+      <c r="AA29">
+        <v>34.86</v>
+      </c>
+      <c r="AB29">
+        <v>30.96</v>
+      </c>
+      <c r="AC29">
+        <v>14.24</v>
+      </c>
+      <c r="AD29">
+        <v>2658.79</v>
+      </c>
+      <c r="AE29">
+        <v>44.31</v>
+      </c>
+      <c r="AF29">
+        <v>30.96</v>
+      </c>
+      <c r="AG29">
+        <v>14.45</v>
+      </c>
+      <c r="AH29">
+        <v>2982.18</v>
+      </c>
+      <c r="AI29">
+        <v>49.7</v>
+      </c>
+      <c r="AJ29">
+        <v>30.96</v>
+      </c>
+      <c r="AK29">
+        <v>15.01</v>
+      </c>
+      <c r="AL29">
+        <v>3247.2</v>
+      </c>
+      <c r="AM29">
+        <v>54.12</v>
+      </c>
+      <c r="AN29">
+        <v>30.96</v>
+      </c>
+      <c r="AO29">
+        <v>14.75</v>
+      </c>
+      <c r="AP29">
+        <v>2937.71</v>
+      </c>
+      <c r="AQ29">
+        <v>48.96</v>
+      </c>
+      <c r="AR29">
+        <v>30.96</v>
+      </c>
+      <c r="AS29">
         <v>0</v>
       </c>
-      <c r="Z29">
-        <v>14.57</v>
-      </c>
-      <c r="AA29">
-        <v>0.43</v>
-      </c>
-      <c r="AB29">
-        <v>3595.49</v>
-      </c>
-      <c r="AC29">
-        <v>832.0599999999999</v>
-      </c>
-      <c r="AD29">
-        <v>59.92</v>
-      </c>
-      <c r="AE29">
-        <v>13.87</v>
+      <c r="AT29">
+        <v>14.46</v>
+      </c>
+      <c r="AU29">
+        <v>0.52</v>
+      </c>
+      <c r="AV29">
+        <v>3189.49</v>
+      </c>
+      <c r="AW29">
+        <v>759.41</v>
+      </c>
+      <c r="AX29">
+        <v>53.16</v>
+      </c>
+      <c r="AY29">
+        <v>12.66</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:51">
       <c r="A30" s="1">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>60.06</v>
@@ -3389,36 +5189,96 @@
         <v>60.06</v>
       </c>
       <c r="Y30">
+        <v>13.83</v>
+      </c>
+      <c r="Z30">
+        <v>1432.22</v>
+      </c>
+      <c r="AA30">
+        <v>23.87</v>
+      </c>
+      <c r="AB30">
+        <v>60.06</v>
+      </c>
+      <c r="AC30">
+        <v>13.87</v>
+      </c>
+      <c r="AD30">
+        <v>1751.72</v>
+      </c>
+      <c r="AE30">
+        <v>29.2</v>
+      </c>
+      <c r="AF30">
+        <v>60.06</v>
+      </c>
+      <c r="AG30">
+        <v>15.27</v>
+      </c>
+      <c r="AH30">
+        <v>1873.87</v>
+      </c>
+      <c r="AI30">
+        <v>31.23</v>
+      </c>
+      <c r="AJ30">
+        <v>60.06</v>
+      </c>
+      <c r="AK30">
+        <v>14.68</v>
+      </c>
+      <c r="AL30">
+        <v>2018.52</v>
+      </c>
+      <c r="AM30">
+        <v>33.64</v>
+      </c>
+      <c r="AN30">
+        <v>60.06</v>
+      </c>
+      <c r="AO30">
+        <v>13.25</v>
+      </c>
+      <c r="AP30">
+        <v>2022.33</v>
+      </c>
+      <c r="AQ30">
+        <v>33.71</v>
+      </c>
+      <c r="AR30">
+        <v>60.06</v>
+      </c>
+      <c r="AS30">
         <v>0</v>
       </c>
-      <c r="Z30">
-        <v>15.05</v>
-      </c>
-      <c r="AA30">
-        <v>1.28</v>
-      </c>
-      <c r="AB30">
-        <v>2224.13</v>
-      </c>
-      <c r="AC30">
-        <v>449.97</v>
-      </c>
-      <c r="AD30">
-        <v>37.07</v>
-      </c>
-      <c r="AE30">
-        <v>7.5</v>
+      <c r="AT30">
+        <v>14.62</v>
+      </c>
+      <c r="AU30">
+        <v>1.1</v>
+      </c>
+      <c r="AV30">
+        <v>2021.93</v>
+      </c>
+      <c r="AW30">
+        <v>402.36</v>
+      </c>
+      <c r="AX30">
+        <v>33.7</v>
+      </c>
+      <c r="AY30">
+        <v>6.71</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:51">
       <c r="A31" s="1">
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>78.40000000000001</v>
@@ -3484,36 +5344,96 @@
         <v>78.40000000000001</v>
       </c>
       <c r="Y31">
+        <v>12.53</v>
+      </c>
+      <c r="Z31">
+        <v>1065.85</v>
+      </c>
+      <c r="AA31">
+        <v>17.76</v>
+      </c>
+      <c r="AB31">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="AC31">
+        <v>12.71</v>
+      </c>
+      <c r="AD31">
+        <v>1266.8</v>
+      </c>
+      <c r="AE31">
+        <v>21.11</v>
+      </c>
+      <c r="AF31">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="AG31">
+        <v>12.54</v>
+      </c>
+      <c r="AH31">
+        <v>1402.34</v>
+      </c>
+      <c r="AI31">
+        <v>23.37</v>
+      </c>
+      <c r="AJ31">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="AK31">
+        <v>12.73</v>
+      </c>
+      <c r="AL31">
+        <v>1269.98</v>
+      </c>
+      <c r="AM31">
+        <v>21.17</v>
+      </c>
+      <c r="AN31">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="AO31">
+        <v>13.95</v>
+      </c>
+      <c r="AP31">
+        <v>1325.19</v>
+      </c>
+      <c r="AQ31">
+        <v>22.09</v>
+      </c>
+      <c r="AR31">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="AS31">
         <v>0</v>
       </c>
-      <c r="Z31">
+      <c r="AT31">
         <v>12.9</v>
       </c>
-      <c r="AA31">
-        <v>0.26</v>
-      </c>
-      <c r="AB31">
-        <v>1482.18</v>
-      </c>
-      <c r="AC31">
-        <v>230.75</v>
-      </c>
-      <c r="AD31">
-        <v>24.7</v>
-      </c>
-      <c r="AE31">
-        <v>3.85</v>
+      <c r="AU31">
+        <v>0.43</v>
+      </c>
+      <c r="AV31">
+        <v>1374.11</v>
+      </c>
+      <c r="AW31">
+        <v>208.68</v>
+      </c>
+      <c r="AX31">
+        <v>22.9</v>
+      </c>
+      <c r="AY31">
+        <v>3.48</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:51">
       <c r="A32" s="1">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D32">
         <v>36.33</v>
@@ -3579,25 +5499,85 @@
         <v>36.33</v>
       </c>
       <c r="Y32">
+        <v>14.57</v>
+      </c>
+      <c r="Z32">
+        <v>2227.43</v>
+      </c>
+      <c r="AA32">
+        <v>37.12</v>
+      </c>
+      <c r="AB32">
+        <v>36.33</v>
+      </c>
+      <c r="AC32">
+        <v>14.31</v>
+      </c>
+      <c r="AD32">
+        <v>2722.87</v>
+      </c>
+      <c r="AE32">
+        <v>45.38</v>
+      </c>
+      <c r="AF32">
+        <v>36.33</v>
+      </c>
+      <c r="AG32">
+        <v>15.07</v>
+      </c>
+      <c r="AH32">
+        <v>2779.93</v>
+      </c>
+      <c r="AI32">
+        <v>46.33</v>
+      </c>
+      <c r="AJ32">
+        <v>36.33</v>
+      </c>
+      <c r="AK32">
+        <v>12.97</v>
+      </c>
+      <c r="AL32">
+        <v>2968.32</v>
+      </c>
+      <c r="AM32">
+        <v>49.47</v>
+      </c>
+      <c r="AN32">
+        <v>36.33</v>
+      </c>
+      <c r="AO32">
+        <v>12.91</v>
+      </c>
+      <c r="AP32">
+        <v>2873.57</v>
+      </c>
+      <c r="AQ32">
+        <v>47.89</v>
+      </c>
+      <c r="AR32">
+        <v>36.33</v>
+      </c>
+      <c r="AS32">
         <v>0</v>
       </c>
-      <c r="Z32">
-        <v>13.86</v>
-      </c>
-      <c r="AA32">
-        <v>0.79</v>
-      </c>
-      <c r="AB32">
-        <v>3539.45</v>
-      </c>
-      <c r="AC32">
-        <v>643.36</v>
-      </c>
-      <c r="AD32">
-        <v>58.99</v>
-      </c>
-      <c r="AE32">
-        <v>10.72</v>
+      <c r="AT32">
+        <v>13.91</v>
+      </c>
+      <c r="AU32">
+        <v>0.84</v>
+      </c>
+      <c r="AV32">
+        <v>3126.94</v>
+      </c>
+      <c r="AW32">
+        <v>640.1900000000001</v>
+      </c>
+      <c r="AX32">
+        <v>52.12</v>
+      </c>
+      <c r="AY32">
+        <v>10.67</v>
       </c>
     </row>
   </sheetData>
